--- a/consumo.xlsx
+++ b/consumo.xlsx
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -1853,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>251606</v>
+        <v>2500</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>229451</v>
@@ -1892,7 +1892,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="10" t="n">
         <f aca="false">AVERAGE(C4:N4)</f>
-        <v>259635.363636364</v>
+        <v>236989.363636364</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
